--- a/database/test.xlsx
+++ b/database/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xtian\OneDrive\Documents\CentralSupelec\projet\msdocs-flask-postgresql-sample-app\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3A6386-BE42-4F8C-AE52-1457A24F5251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F474B50-06DF-40BD-83A4-308C57F65A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="324">
   <si>
     <t>QWEHLI SAS</t>
   </si>
@@ -135,18 +135,12 @@
     <t>EUROP LABO</t>
   </si>
   <si>
-    <t>1.4400484</t>
-  </si>
-  <si>
     <t>250</t>
   </si>
   <si>
     <t>AGRANO</t>
   </si>
   <si>
-    <t>5.9164145</t>
-  </si>
-  <si>
     <t>9g</t>
   </si>
   <si>
@@ -154,9 +148,6 @@
   </si>
   <si>
     <t>NATURE MED</t>
-  </si>
-  <si>
-    <t>2.9115727</t>
   </si>
   <si>
     <t>5g</t>
@@ -1111,7 +1102,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1146,7 +1137,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="NiveauLigne_4" xfId="1" builtinId="1" iLevel="3"/>
@@ -1430,122 +1420,122 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A107"/>
+    <sheetView tabSelected="1" topLeftCell="J70" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2:X107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:31" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="I1" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="J1" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="K1" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="L1" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="M1" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="N1" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="O1" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="P1" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="Q1" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="R1" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="S1" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="T1" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="U1" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="V1" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="W1" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="X1" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="Y1" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="Z1" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="AA1" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="Y1" s="14" t="s">
+      <c r="AB1" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="Z1" s="14" t="s">
+      <c r="AC1" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="AA1" s="14" t="s">
+      <c r="AD1" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="AB1" s="14" t="s">
+      <c r="AE1" s="15" t="s">
         <v>105</v>
-      </c>
-      <c r="AC1" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="AD1" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE1" s="15" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>2220383</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F2" s="1">
         <v>2220383</v>
@@ -1553,8 +1543,8 @@
       <c r="G2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H2" s="2">
+        <v>999999</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>1</v>
@@ -1600,7 +1590,7 @@
         <v>0.14513192999999999</v>
       </c>
       <c r="X2" s="6">
-        <v>5.9918087</v>
+        <v>9999</v>
       </c>
       <c r="Y2" s="2" t="s">
         <v>6</v>
@@ -1626,19 +1616,19 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>2935306</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F3" s="1">
         <v>2935306</v>
@@ -1646,8 +1636,8 @@
       <c r="G3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H3" s="2">
+        <v>999999</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>1</v>
@@ -1693,7 +1683,7 @@
         <v>4.7993020999999997E-3</v>
       </c>
       <c r="X3" s="6">
-        <v>6.2657058000000001</v>
+        <v>9999</v>
       </c>
       <c r="Y3" s="2" t="s">
         <v>6</v>
@@ -1719,19 +1709,19 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1">
         <v>3760213050052</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F4" s="1">
         <v>3760213050052</v>
@@ -1740,7 +1730,7 @@
         <v>14</v>
       </c>
       <c r="H4" s="2">
-        <v>0</v>
+        <v>999999</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -1759,7 +1749,9 @@
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
+      <c r="X4" s="6">
+        <v>9999</v>
+      </c>
       <c r="Y4" s="2" t="s">
         <v>16</v>
       </c>
@@ -1784,19 +1776,19 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1">
         <v>3760121214874</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F5" s="1">
         <v>3760121214874</v>
@@ -1804,8 +1796,8 @@
       <c r="G5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H5" s="2">
+        <v>999999</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1824,7 +1816,9 @@
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
+      <c r="X5" s="6">
+        <v>9999</v>
+      </c>
       <c r="Y5" s="2" t="s">
         <v>16</v>
       </c>
@@ -1849,19 +1843,19 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B6" s="1">
         <v>3428881170402</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F6" s="1">
         <v>3428881170402</v>
@@ -1869,8 +1863,8 @@
       <c r="G6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H6" s="2">
+        <v>999999</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -1889,7 +1883,9 @@
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
+      <c r="X6" s="6">
+        <v>9999</v>
+      </c>
       <c r="Y6" s="2" t="s">
         <v>22</v>
       </c>
@@ -1914,19 +1910,19 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B7" s="1">
         <v>3428881131502</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F7" s="1">
         <v>3428881131502</v>
@@ -1934,8 +1930,8 @@
       <c r="G7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H7" s="2">
+        <v>999999</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -1954,7 +1950,9 @@
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
+      <c r="X7" s="6">
+        <v>9999</v>
+      </c>
       <c r="Y7" s="2" t="s">
         <v>22</v>
       </c>
@@ -1979,19 +1977,19 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1">
         <v>4035784190162</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F8" s="1">
         <v>4035784190162</v>
@@ -1999,8 +1997,8 @@
       <c r="G8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H8" s="2">
+        <v>999999</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -2019,7 +2017,9 @@
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
+      <c r="X8" s="6">
+        <v>9999</v>
+      </c>
       <c r="Y8" s="2" t="s">
         <v>16</v>
       </c>
@@ -2044,26 +2044,26 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B9" s="1">
         <v>3760102771990</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F9" s="1">
         <v>3760102771990</v>
       </c>
       <c r="G9" s="2"/>
-      <c r="H9" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H9" s="2">
+        <v>999999</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>27</v>
@@ -2111,7 +2111,7 @@
         <v>4.7993020999999997E-3</v>
       </c>
       <c r="X9" s="6">
-        <v>1.1563935999999999</v>
+        <v>9999</v>
       </c>
       <c r="Y9" s="2" t="s">
         <v>33</v>
@@ -2137,19 +2137,19 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1">
         <v>42023623</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F10" s="1">
         <v>42023623</v>
@@ -2157,8 +2157,8 @@
       <c r="G10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>36</v>
+      <c r="H10" s="2">
+        <v>999999</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -2175,7 +2175,9 @@
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
+      <c r="X10" s="6">
+        <v>9999</v>
+      </c>
       <c r="Y10" s="2" t="s">
         <v>16</v>
       </c>
@@ -2186,10 +2188,10 @@
         <v>17</v>
       </c>
       <c r="AB10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AD10" s="2">
         <v>0.25</v>
@@ -2200,28 +2202,28 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B11" s="1">
         <v>42099901</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F11" s="1">
         <v>42099901</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="H11" s="2">
+        <v>999999</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -2238,9 +2240,11 @@
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
+      <c r="X11" s="6">
+        <v>9999</v>
+      </c>
       <c r="Y11" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Z11" s="2">
         <v>1</v>
@@ -2249,10 +2253,10 @@
         <v>17</v>
       </c>
       <c r="AB11" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AC11" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AD11" s="2">
         <v>8.9999999999999993E-3</v>
@@ -2263,28 +2267,28 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B12" s="1">
         <v>80667650</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F12" s="1">
         <v>80667650</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="H12" s="2">
+        <v>999999</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -2301,9 +2305,11 @@
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
+      <c r="X12" s="6">
+        <v>9999</v>
+      </c>
       <c r="Y12" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Z12" s="2">
         <v>1</v>
@@ -2312,10 +2318,10 @@
         <v>17</v>
       </c>
       <c r="AB12" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AC12" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AD12" s="2">
         <v>2.5000000000000001E-2</v>
@@ -2326,33 +2332,33 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B13" s="1">
         <v>80667667</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F13" s="1">
         <v>80667667</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" s="2" t="e">
-        <v>#N/A</v>
+        <v>40</v>
+      </c>
+      <c r="H13" s="2">
+        <v>999999</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -2366,9 +2372,11 @@
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
+      <c r="X13" s="6">
+        <v>9999</v>
+      </c>
       <c r="Y13" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Z13" s="2">
         <v>1</v>
@@ -2377,10 +2385,10 @@
         <v>17</v>
       </c>
       <c r="AB13" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AC13" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AD13" s="2">
         <v>2.5000000000000001E-2</v>
@@ -2391,33 +2399,33 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B14" s="1">
         <v>3331968001</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F14" s="1">
         <v>3331968001</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H14" s="2" t="e">
-        <v>#N/A</v>
+        <v>44</v>
+      </c>
+      <c r="H14" s="2">
+        <v>999999</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -2431,21 +2439,23 @@
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
+      <c r="X14" s="6">
+        <v>9999</v>
+      </c>
       <c r="Y14" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Z14" s="2">
         <v>16</v>
       </c>
       <c r="AA14" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AB14" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AC14" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AD14" s="2">
         <v>0.33</v>
@@ -2456,33 +2466,33 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B15" s="1">
         <v>3331968004</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F15" s="1">
         <v>3331968004</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H15" s="2" t="e">
-        <v>#N/A</v>
+        <v>44</v>
+      </c>
+      <c r="H15" s="2">
+        <v>999999</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -2496,21 +2506,23 @@
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
-      <c r="X15" s="2"/>
+      <c r="X15" s="6">
+        <v>9999</v>
+      </c>
       <c r="Y15" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Z15" s="2">
         <v>16</v>
       </c>
       <c r="AA15" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AB15" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AC15" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AD15" s="2">
         <v>0.33</v>
@@ -2521,33 +2533,33 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B16" s="1">
         <v>3331968005</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F16" s="1">
         <v>3331968005</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H16" s="2" t="e">
-        <v>#N/A</v>
+        <v>44</v>
+      </c>
+      <c r="H16" s="2">
+        <v>999999</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -2561,21 +2573,23 @@
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
+      <c r="X16" s="6">
+        <v>9999</v>
+      </c>
       <c r="Y16" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="Z16" s="2">
         <v>1</v>
       </c>
       <c r="AA16" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AB16" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="AC16" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="AD16" s="2">
         <v>1</v>
@@ -2586,26 +2600,26 @@
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B17" s="1">
         <v>200558000000</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F17" s="1">
         <v>200558000000</v>
       </c>
       <c r="G17" s="2"/>
-      <c r="H17" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H17" s="2">
+        <v>999999</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>1</v>
@@ -2627,10 +2641,10 @@
         <v>11</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="Q17" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R17" s="5">
         <v>4.7126102999999997</v>
@@ -2651,7 +2665,7 @@
         <v>4.7993020999999997E-3</v>
       </c>
       <c r="X17" s="6">
-        <v>5.4920327000000002</v>
+        <v>9999</v>
       </c>
       <c r="Y17" s="2" t="s">
         <v>6</v>
@@ -2677,26 +2691,26 @@
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B18" s="1">
         <v>200559000000</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F18" s="1">
         <v>200559000000</v>
       </c>
       <c r="G18" s="2"/>
-      <c r="H18" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H18" s="2">
+        <v>999999</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>1</v>
@@ -2718,10 +2732,10 @@
         <v>11</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="Q18" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R18" s="5">
         <v>4.7126102999999997</v>
@@ -2742,7 +2756,7 @@
         <v>4.7993020999999997E-3</v>
       </c>
       <c r="X18" s="6">
-        <v>5.4920327000000002</v>
+        <v>9999</v>
       </c>
       <c r="Y18" s="2" t="s">
         <v>6</v>
@@ -2768,26 +2782,26 @@
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B19" s="1">
         <v>200560000000</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F19" s="1">
         <v>200560000000</v>
       </c>
       <c r="G19" s="2"/>
-      <c r="H19" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H19" s="2">
+        <v>999999</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>1</v>
@@ -2809,10 +2823,10 @@
         <v>11</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R19" s="5">
         <v>5.3279116999999996</v>
@@ -2833,7 +2847,7 @@
         <v>4.7993020999999997E-3</v>
       </c>
       <c r="X19" s="6">
-        <v>6.2657058000000001</v>
+        <v>9999</v>
       </c>
       <c r="Y19" s="2" t="s">
         <v>6</v>
@@ -2859,34 +2873,34 @@
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B20" s="1">
         <v>200578000000</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F20" s="1">
         <v>200578000000</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H20" s="2" t="e">
-        <v>#N/A</v>
+        <v>55</v>
+      </c>
+      <c r="H20" s="2">
+        <v>999999</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2">
@@ -2896,16 +2910,16 @@
         <v>15005</v>
       </c>
       <c r="N20" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q20" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="O20" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="P20" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q20" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="R20" s="5">
         <v>2.5135833000000001</v>
@@ -2926,7 +2940,7 @@
         <v>0.39825926</v>
       </c>
       <c r="X20" s="6">
-        <v>3.7882975999999999</v>
+        <v>9999</v>
       </c>
       <c r="Y20" s="2" t="s">
         <v>6</v>
@@ -2952,34 +2966,34 @@
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B21" s="1">
         <v>200579000000</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F21" s="1">
         <v>200579000000</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H21" s="2" t="e">
-        <v>#N/A</v>
+        <v>61</v>
+      </c>
+      <c r="H21" s="2">
+        <v>999999</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="2">
@@ -2989,16 +3003,16 @@
         <v>15005</v>
       </c>
       <c r="N21" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q21" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="O21" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="P21" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q21" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="R21" s="5">
         <v>2.5135833000000001</v>
@@ -3019,7 +3033,7 @@
         <v>0.39825926</v>
       </c>
       <c r="X21" s="6">
-        <v>3.7882975999999999</v>
+        <v>9999</v>
       </c>
       <c r="Y21" s="2" t="s">
         <v>6</v>
@@ -3045,34 +3059,34 @@
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B22" s="1">
         <v>200601000000</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F22" s="1">
         <v>200601000000</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H22" s="2" t="e">
-        <v>#N/A</v>
+        <v>62</v>
+      </c>
+      <c r="H22" s="2">
+        <v>999999</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2">
@@ -3082,16 +3096,16 @@
         <v>9871</v>
       </c>
       <c r="N22" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q22" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="O22" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="P22" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q22" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="R22" s="5">
         <v>0.54690643999999999</v>
@@ -3112,7 +3126,7 @@
         <v>1.2726077000000001E-2</v>
       </c>
       <c r="X22" s="6">
-        <v>1.6654770999999999</v>
+        <v>9999</v>
       </c>
       <c r="Y22" s="2" t="s">
         <v>6</v>
@@ -3138,28 +3152,28 @@
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B23" s="1">
         <v>200606000000</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F23" s="1">
         <v>200606000000</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H23" s="2" t="e">
-        <v>#N/A</v>
+        <v>67</v>
+      </c>
+      <c r="H23" s="2">
+        <v>999999</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>1</v>
@@ -3175,16 +3189,16 @@
         <v>9810</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="P23" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Q23" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R23" s="5">
         <v>0.57729014000000001</v>
@@ -3205,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="X23" s="6">
-        <v>1.7176499000000001</v>
+        <v>9999</v>
       </c>
       <c r="Y23" s="2" t="s">
         <v>6</v>
@@ -3231,33 +3245,33 @@
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B24" s="1">
         <v>200608000000</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F24" s="1">
         <v>200608000000</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H24" s="2" t="e">
-        <v>#N/A</v>
+        <v>70</v>
+      </c>
+      <c r="H24" s="2">
+        <v>999999</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -3271,7 +3285,9 @@
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
-      <c r="X24" s="2"/>
+      <c r="X24" s="6">
+        <v>9999</v>
+      </c>
       <c r="Y24" s="2" t="s">
         <v>6</v>
       </c>
@@ -3296,34 +3312,34 @@
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B25" s="1">
         <v>200610000000</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F25" s="1">
         <v>200610000000</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H25" s="2" t="e">
-        <v>#N/A</v>
+        <v>71</v>
+      </c>
+      <c r="H25" s="2">
+        <v>999999</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K25" s="2"/>
       <c r="L25" s="2">
@@ -3333,16 +3349,16 @@
         <v>9435</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P25" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q25" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R25" s="5">
         <v>0.35283730000000002</v>
@@ -3363,7 +3379,7 @@
         <v>0</v>
       </c>
       <c r="X25" s="6">
-        <v>0.50663009000000003</v>
+        <v>9999</v>
       </c>
       <c r="Y25" s="2" t="s">
         <v>6</v>
@@ -3389,34 +3405,34 @@
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B26" s="1">
         <v>200611000000</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F26" s="1">
         <v>200611000000</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H26" s="2" t="e">
-        <v>#N/A</v>
+        <v>71</v>
+      </c>
+      <c r="H26" s="2">
+        <v>999999</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="2">
@@ -3426,16 +3442,16 @@
         <v>9445</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O26" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P26" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="Q26" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="R26" s="5">
         <v>0.35283730000000002</v>
@@ -3456,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="X26" s="6">
-        <v>0.50663009000000003</v>
+        <v>9999</v>
       </c>
       <c r="Y26" s="2" t="s">
         <v>6</v>
@@ -3482,34 +3498,34 @@
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B27" s="1">
         <v>200612000000</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F27" s="1">
         <v>200612000000</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H27" s="2" t="e">
-        <v>#N/A</v>
+        <v>71</v>
+      </c>
+      <c r="H27" s="2">
+        <v>999999</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="2">
@@ -3519,16 +3535,16 @@
         <v>9410</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P27" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="Q27" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="R27" s="5">
         <v>0.35283730000000002</v>
@@ -3549,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="X27" s="6">
-        <v>0.50663009000000003</v>
+        <v>9999</v>
       </c>
       <c r="Y27" s="2" t="s">
         <v>6</v>
@@ -3575,34 +3591,34 @@
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B28" s="1">
         <v>200613000000</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F28" s="1">
         <v>200613000000</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H28" s="2" t="e">
-        <v>#N/A</v>
+        <v>71</v>
+      </c>
+      <c r="H28" s="2">
+        <v>999999</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2">
@@ -3612,16 +3628,16 @@
         <v>9415</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O28" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P28" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="Q28" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="R28" s="5">
         <v>0.35283730000000002</v>
@@ -3642,7 +3658,7 @@
         <v>0</v>
       </c>
       <c r="X28" s="6">
-        <v>0.50663009000000003</v>
+        <v>9999</v>
       </c>
       <c r="Y28" s="2" t="s">
         <v>6</v>
@@ -3668,34 +3684,34 @@
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B29" s="1">
         <v>200615000000</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F29" s="1">
         <v>200615000000</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H29" s="2" t="e">
-        <v>#N/A</v>
+        <v>71</v>
+      </c>
+      <c r="H29" s="2">
+        <v>999999</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="2">
@@ -3705,16 +3721,16 @@
         <v>9530</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O29" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P29" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="Q29" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="R29" s="5">
         <v>0.43976622999999998</v>
@@ -3735,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="X29" s="6">
-        <v>0.79964557000000003</v>
+        <v>9999</v>
       </c>
       <c r="Y29" s="2" t="s">
         <v>6</v>
@@ -3761,28 +3777,28 @@
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B30" s="1">
         <v>200617000000</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F30" s="1">
         <v>200617000000</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H30" s="2" t="e">
-        <v>#N/A</v>
+        <v>71</v>
+      </c>
+      <c r="H30" s="2">
+        <v>999999</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>27</v>
@@ -3798,16 +3814,16 @@
         <v>9480</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P30" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="Q30" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="R30" s="17">
         <v>0.88770872000000001</v>
@@ -3827,8 +3843,8 @@
       <c r="W30" s="17">
         <v>0</v>
       </c>
-      <c r="X30" s="18">
-        <v>1.1623341141999999</v>
+      <c r="X30" s="6">
+        <v>9999</v>
       </c>
       <c r="Y30" s="2" t="s">
         <v>6</v>
@@ -3854,34 +3870,34 @@
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B31" s="1">
         <v>200858000000</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F31" s="1">
         <v>200858000000</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H31" s="2" t="e">
-        <v>#N/A</v>
+        <v>71</v>
+      </c>
+      <c r="H31" s="2">
+        <v>999999</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="2">
@@ -3891,16 +3907,16 @@
         <v>9540</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P31" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="Q31" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="R31" s="5">
         <v>0.52400888999999995</v>
@@ -3921,7 +3937,7 @@
         <v>0</v>
       </c>
       <c r="X31" s="6">
-        <v>0.88388822</v>
+        <v>9999</v>
       </c>
       <c r="Y31" s="2" t="s">
         <v>6</v>
@@ -3947,31 +3963,31 @@
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B32" s="1">
         <v>200914000000</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F32" s="1">
         <v>200914000000</v>
       </c>
       <c r="G32" s="2"/>
-      <c r="H32" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H32" s="2">
+        <v>999999</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
@@ -3985,7 +4001,9 @@
       <c r="U32" s="2"/>
       <c r="V32" s="2"/>
       <c r="W32" s="2"/>
-      <c r="X32" s="2"/>
+      <c r="X32" s="6">
+        <v>9999</v>
+      </c>
       <c r="Y32" s="2" t="s">
         <v>6</v>
       </c>
@@ -4010,32 +4028,32 @@
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B33" s="1">
         <v>200949000000</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F33" s="1">
         <v>200949000000</v>
       </c>
       <c r="G33" s="2"/>
-      <c r="H33" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H33" s="2">
+        <v>999999</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="2">
@@ -4045,16 +4063,16 @@
         <v>9410</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O33" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P33" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="Q33" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="R33" s="5">
         <v>0.35283730000000002</v>
@@ -4075,7 +4093,7 @@
         <v>0</v>
       </c>
       <c r="X33" s="6">
-        <v>0.50663009000000003</v>
+        <v>9999</v>
       </c>
       <c r="Y33" s="2" t="s">
         <v>6</v>
@@ -4101,31 +4119,31 @@
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B34" s="1">
         <v>200961000000</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F34" s="1">
         <v>200961000000</v>
       </c>
       <c r="G34" s="2"/>
-      <c r="H34" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H34" s="2">
+        <v>999999</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
@@ -4139,7 +4157,9 @@
       <c r="U34" s="2"/>
       <c r="V34" s="2"/>
       <c r="W34" s="2"/>
-      <c r="X34" s="2"/>
+      <c r="X34" s="6">
+        <v>9999</v>
+      </c>
       <c r="Y34" s="2" t="s">
         <v>6</v>
       </c>
@@ -4164,31 +4184,31 @@
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B35" s="1">
         <v>200981000000</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F35" s="1">
         <v>200981000000</v>
       </c>
       <c r="G35" s="2"/>
-      <c r="H35" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H35" s="2">
+        <v>999999</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
@@ -4202,7 +4222,9 @@
       <c r="U35" s="2"/>
       <c r="V35" s="2"/>
       <c r="W35" s="2"/>
-      <c r="X35" s="2"/>
+      <c r="X35" s="6">
+        <v>9999</v>
+      </c>
       <c r="Y35" s="2" t="s">
         <v>6</v>
       </c>
@@ -4227,32 +4249,32 @@
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B36" s="1">
         <v>200992000000</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F36" s="1">
         <v>200992000000</v>
       </c>
       <c r="G36" s="2"/>
-      <c r="H36" s="2" t="e">
-        <v>#N/A</v>
+      <c r="H36" s="2">
+        <v>999999</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K36" s="2"/>
       <c r="L36" s="2">
@@ -4262,16 +4284,16 @@
         <v>9415</v>
       </c>
       <c r="N36" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O36" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P36" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="Q36" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="R36" s="5">
         <v>0.35283730000000002</v>
@@ -4292,7 +4314,7 @@
         <v>0</v>
       </c>
       <c r="X36" s="6">
-        <v>0.50663009000000003</v>
+        <v>9999</v>
       </c>
       <c r="Y36" s="2" t="s">
         <v>6</v>
@@ -4318,33 +4340,33 @@
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B37" s="1">
         <v>201005000000</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F37" s="1">
         <v>201005000000</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H37" s="2" t="e">
-        <v>#N/A</v>
+        <v>37</v>
+      </c>
+      <c r="H37" s="2">
+        <v>999999</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
@@ -4358,7 +4380,9 @@
       <c r="U37" s="2"/>
       <c r="V37" s="2"/>
       <c r="W37" s="2"/>
-      <c r="X37" s="2"/>
+      <c r="X37" s="6">
+        <v>9999</v>
+      </c>
       <c r="Y37" s="2" t="s">
         <v>6</v>
       </c>
@@ -4383,34 +4407,34 @@
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B38" s="1">
         <v>201006000000</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F38" s="1">
         <v>201006000000</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="H38" s="2" t="e">
-        <v>#N/A</v>
+        <v>176</v>
+      </c>
+      <c r="H38" s="2">
+        <v>999999</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="2">
@@ -4420,16 +4444,16 @@
         <v>15000</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O38" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="P38" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Q38" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="R38" s="5">
         <v>5.0476035000000001</v>
@@ -4450,7 +4474,7 @@
         <v>0</v>
       </c>
       <c r="X38" s="6">
-        <v>5.7604477000000003</v>
+        <v>9999</v>
       </c>
       <c r="Y38" s="2" t="s">
         <v>6</v>
@@ -4476,34 +4500,34 @@
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B39" s="1">
         <v>201007000000</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F39" s="1">
         <v>201007000000</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="H39" s="2" t="e">
-        <v>#N/A</v>
+        <v>176</v>
+      </c>
+      <c r="H39" s="2">
+        <v>999999</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="2">
@@ -4513,16 +4537,16 @@
         <v>13089</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="P39" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="Q39" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="R39" s="5">
         <v>2.6295563</v>
@@ -4543,7 +4567,7 @@
         <v>0</v>
       </c>
       <c r="X39" s="6">
-        <v>5.0873315999999997</v>
+        <v>9999</v>
       </c>
       <c r="Y39" s="2" t="s">
         <v>6</v>
@@ -4569,33 +4593,33 @@
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B40" s="1">
         <v>201008000000</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F40" s="1">
         <v>201008000000</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="H40" s="2" t="e">
-        <v>#N/A</v>
+        <v>176</v>
+      </c>
+      <c r="H40" s="2">
+        <v>999999</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
@@ -4609,7 +4633,9 @@
       <c r="U40" s="2"/>
       <c r="V40" s="2"/>
       <c r="W40" s="2"/>
-      <c r="X40" s="2"/>
+      <c r="X40" s="6">
+        <v>9999</v>
+      </c>
       <c r="Y40" s="2" t="s">
         <v>6</v>
       </c>
@@ -4634,33 +4660,33 @@
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B41" s="1">
         <v>201009000000</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F41" s="1">
         <v>201009000000</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="H41" s="2" t="e">
-        <v>#N/A</v>
+        <v>176</v>
+      </c>
+      <c r="H41" s="2">
+        <v>999999</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
@@ -4674,7 +4700,9 @@
       <c r="U41" s="2"/>
       <c r="V41" s="2"/>
       <c r="W41" s="2"/>
-      <c r="X41" s="2"/>
+      <c r="X41" s="6">
+        <v>9999</v>
+      </c>
       <c r="Y41" s="2" t="s">
         <v>6</v>
       </c>
@@ -4699,34 +4727,34 @@
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B42" s="1">
         <v>201010000000</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F42" s="1">
         <v>201010000000</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="H42" s="2" t="e">
-        <v>#N/A</v>
+        <v>176</v>
+      </c>
+      <c r="H42" s="2">
+        <v>999999</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K42" s="2"/>
       <c r="L42" s="2">
@@ -4736,16 +4764,16 @@
         <v>13001</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O42" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="P42" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="Q42" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="R42" s="5">
         <v>1.1168928</v>
@@ -4766,7 +4794,7 @@
         <v>0</v>
       </c>
       <c r="X42" s="6">
-        <v>2.6536342999999998</v>
+        <v>9999</v>
       </c>
       <c r="Y42" s="2" t="s">
         <v>6</v>
@@ -4792,28 +4820,28 @@
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B43" s="1">
         <v>201011000000</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F43" s="1">
         <v>201011000000</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="H43" s="2" t="e">
-        <v>#N/A</v>
+        <v>176</v>
+      </c>
+      <c r="H43" s="2">
+        <v>999999</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>1</v>
@@ -4829,16 +4857,16 @@
         <v>13112</v>
       </c>
       <c r="N43" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O43" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="P43" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q43" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="R43" s="5">
         <v>0.29161535999999999</v>
@@ -4859,7 +4887,7 @@
         <v>9.9564814000000001E-2</v>
       </c>
       <c r="X43" s="6">
-        <v>0.62837474000000004</v>
+        <v>9999</v>
       </c>
       <c r="Y43" s="2" t="s">
         <v>6</v>
@@ -4885,33 +4913,33 @@
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B44" s="1">
         <v>201013000000</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F44" s="1">
         <v>201013000000</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="H44" s="2" t="e">
-        <v>#N/A</v>
+        <v>176</v>
+      </c>
+      <c r="H44" s="2">
+        <v>999999</v>
       </c>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
@@ -4925,7 +4953,9 @@
       <c r="U44" s="2"/>
       <c r="V44" s="2"/>
       <c r="W44" s="2"/>
-      <c r="X44" s="2"/>
+      <c r="X44" s="6">
+        <v>9999</v>
+      </c>
       <c r="Y44" s="2" t="s">
         <v>6</v>
       </c>
@@ -4950,33 +4980,33 @@
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B45" s="1">
         <v>201015000000</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F45" s="1">
         <v>201015000000</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="H45" s="2" t="e">
-        <v>#N/A</v>
+        <v>176</v>
+      </c>
+      <c r="H45" s="2">
+        <v>999999</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
@@ -4990,7 +5020,9 @@
       <c r="U45" s="2"/>
       <c r="V45" s="2"/>
       <c r="W45" s="2"/>
-      <c r="X45" s="2"/>
+      <c r="X45" s="6">
+        <v>9999</v>
+      </c>
       <c r="Y45" s="2" t="s">
         <v>6</v>
       </c>
@@ -5015,49 +5047,49 @@
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B46" s="1">
         <v>201016000000</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F46" s="1">
         <v>201016000000</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="H46" s="2" t="e">
-        <v>#N/A</v>
+        <v>176</v>
+      </c>
+      <c r="H46" s="2">
+        <v>999999</v>
       </c>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
       <c r="L46" s="16" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M46" s="2">
         <v>15009</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O46" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="P46" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q46" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="R46" s="17">
         <v>5.8735442000000004</v>
@@ -5077,8 +5109,8 @@
       <c r="W46" s="17">
         <v>0.32148158999999998</v>
       </c>
-      <c r="X46" s="18">
-        <v>7.3511500000000014</v>
+      <c r="X46" s="6">
+        <v>9999</v>
       </c>
       <c r="Y46" s="2" t="s">
         <v>6</v>
@@ -5104,33 +5136,33 @@
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B47" s="1">
         <v>201017000000</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F47" s="1">
         <v>201017000000</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="H47" s="2" t="e">
-        <v>#N/A</v>
+        <v>176</v>
+      </c>
+      <c r="H47" s="2">
+        <v>999999</v>
       </c>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
@@ -5144,7 +5176,9 @@
       <c r="U47" s="2"/>
       <c r="V47" s="2"/>
       <c r="W47" s="2"/>
-      <c r="X47" s="2"/>
+      <c r="X47" s="6">
+        <v>9999</v>
+      </c>
       <c r="Y47" s="2" t="s">
         <v>6</v>
       </c>
@@ -5169,34 +5203,34 @@
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B48" s="1">
         <v>201018000000</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F48" s="1">
         <v>201018000000</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="H48" s="2" t="e">
-        <v>#N/A</v>
+        <v>176</v>
+      </c>
+      <c r="H48" s="2">
+        <v>999999</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K48" s="2"/>
       <c r="L48" s="2">
@@ -5206,16 +5240,16 @@
         <v>13013</v>
       </c>
       <c r="N48" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O48" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="P48" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q48" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="R48" s="5">
         <v>0.66182702000000004</v>
@@ -5236,7 +5270,7 @@
         <v>0</v>
       </c>
       <c r="X48" s="6">
-        <v>1.6950163</v>
+        <v>9999</v>
       </c>
       <c r="Y48" s="2" t="s">
         <v>6</v>
@@ -5262,33 +5296,33 @@
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B49" s="1">
         <v>201020000000</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F49" s="1">
         <v>201020000000</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="H49" s="2" t="e">
-        <v>#N/A</v>
+        <v>176</v>
+      </c>
+      <c r="H49" s="2">
+        <v>999999</v>
       </c>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
@@ -5302,7 +5336,9 @@
       <c r="U49" s="2"/>
       <c r="V49" s="2"/>
       <c r="W49" s="2"/>
-      <c r="X49" s="2"/>
+      <c r="X49" s="6">
+        <v>9999</v>
+      </c>
       <c r="Y49" s="2" t="s">
         <v>6</v>
       </c>
@@ -5327,33 +5363,33 @@
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B50" s="1">
         <v>201021000000</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F50" s="1">
         <v>201021000000</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="H50" s="2" t="e">
-        <v>#N/A</v>
+        <v>176</v>
+      </c>
+      <c r="H50" s="2">
+        <v>999999</v>
       </c>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
@@ -5367,7 +5403,9 @@
       <c r="U50" s="2"/>
       <c r="V50" s="2"/>
       <c r="W50" s="2"/>
-      <c r="X50" s="2"/>
+      <c r="X50" s="6">
+        <v>9999</v>
+      </c>
       <c r="Y50" s="2" t="s">
         <v>6</v>
       </c>
@@ -5392,33 +5430,33 @@
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B51" s="1">
         <v>201022000000</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F51" s="1">
         <v>201022000000</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="H51" s="2" t="e">
-        <v>#N/A</v>
+        <v>176</v>
+      </c>
+      <c r="H51" s="2">
+        <v>999999</v>
       </c>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
@@ -5432,7 +5470,9 @@
       <c r="U51" s="2"/>
       <c r="V51" s="2"/>
       <c r="W51" s="2"/>
-      <c r="X51" s="2"/>
+      <c r="X51" s="6">
+        <v>9999</v>
+      </c>
       <c r="Y51" s="2" t="s">
         <v>6</v>
       </c>
@@ -5457,33 +5497,33 @@
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B52" s="1">
         <v>201023000000</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F52" s="1">
         <v>201023000000</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="H52" s="2" t="e">
-        <v>#N/A</v>
+        <v>176</v>
+      </c>
+      <c r="H52" s="2">
+        <v>999999</v>
       </c>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
@@ -5497,7 +5537,9 @@
       <c r="U52" s="2"/>
       <c r="V52" s="2"/>
       <c r="W52" s="2"/>
-      <c r="X52" s="2"/>
+      <c r="X52" s="6">
+        <v>9999</v>
+      </c>
       <c r="Y52" s="2" t="s">
         <v>6</v>
       </c>
@@ -5522,28 +5564,28 @@
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B53" s="1">
         <v>201025000000</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F53" s="1">
         <v>201025000000</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="H53" s="2" t="e">
-        <v>#N/A</v>
+        <v>176</v>
+      </c>
+      <c r="H53" s="2">
+        <v>999999</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>1</v>
@@ -5559,16 +5601,16 @@
         <v>13112</v>
       </c>
       <c r="N53" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O53" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="P53" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q53" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="R53" s="5">
         <v>0.29161535999999999</v>
@@ -5589,7 +5631,7 @@
         <v>9.9564814000000001E-2</v>
       </c>
       <c r="X53" s="6">
-        <v>0.62837474000000004</v>
+        <v>9999</v>
       </c>
       <c r="Y53" s="2" t="s">
         <v>6</v>
@@ -5615,34 +5657,34 @@
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B54" s="1">
         <v>201027000000</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F54" s="1">
         <v>201027000000</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="H54" s="2" t="e">
-        <v>#N/A</v>
+        <v>176</v>
+      </c>
+      <c r="H54" s="2">
+        <v>999999</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K54" s="2"/>
       <c r="L54" s="2">
@@ -5652,16 +5694,16 @@
         <v>20581</v>
       </c>
       <c r="N54" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O54" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="P54" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="Q54" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="R54" s="5">
         <v>8.2911529999999996</v>
@@ -5682,7 +5724,7 @@
         <v>0.40618602999999998</v>
       </c>
       <c r="X54" s="6">
-        <v>9.7587323000000001</v>
+        <v>9999</v>
       </c>
       <c r="Y54" s="2" t="s">
         <v>6</v>
@@ -5708,34 +5750,34 @@
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B55" s="1">
         <v>201028000000</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F55" s="1">
         <v>201028000000</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="H55" s="2" t="e">
-        <v>#N/A</v>
+        <v>176</v>
+      </c>
+      <c r="H55" s="2">
+        <v>999999</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K55" s="2"/>
       <c r="L55" s="2">
@@ -5745,16 +5787,16 @@
         <v>20581</v>
       </c>
       <c r="N55" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O55" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="P55" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="Q55" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="R55" s="5">
         <v>8.2911529999999996</v>
@@ -5775,7 +5817,7 @@
         <v>0.40618602999999998</v>
       </c>
       <c r="X55" s="6">
-        <v>9.7587323000000001</v>
+        <v>9999</v>
       </c>
       <c r="Y55" s="2" t="s">
         <v>6</v>
@@ -5801,34 +5843,34 @@
     </row>
     <row r="56" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B56" s="1">
         <v>201029000000</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F56" s="1">
         <v>201029000000</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="H56" s="2" t="e">
-        <v>#N/A</v>
+        <v>176</v>
+      </c>
+      <c r="H56" s="2">
+        <v>999999</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K56" s="2"/>
       <c r="L56" s="2">
@@ -5838,16 +5880,16 @@
         <v>20581</v>
       </c>
       <c r="N56" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O56" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="P56" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="Q56" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="R56" s="5">
         <v>8.2911529999999996</v>
@@ -5868,7 +5910,7 @@
         <v>0.40618602999999998</v>
       </c>
       <c r="X56" s="6">
-        <v>9.7587323000000001</v>
+        <v>9999</v>
       </c>
       <c r="Y56" s="2" t="s">
         <v>6</v>
@@ -5894,34 +5936,34 @@
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B57" s="1">
         <v>201030000000</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F57" s="1">
         <v>201030000000</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="H57" s="2" t="e">
-        <v>#N/A</v>
+        <v>176</v>
+      </c>
+      <c r="H57" s="2">
+        <v>999999</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K57" s="2"/>
       <c r="L57" s="2">
@@ -5931,16 +5973,16 @@
         <v>13089</v>
       </c>
       <c r="N57" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O57" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="P57" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="Q57" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="R57" s="5">
         <v>2.6295563</v>
@@ -5961,7 +6003,7 @@
         <v>0</v>
       </c>
       <c r="X57" s="6">
-        <v>5.0873315999999997</v>
+        <v>9999</v>
       </c>
       <c r="Y57" s="2" t="s">
         <v>6</v>
@@ -5987,33 +6029,33 @@
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B58" s="1">
         <v>201031000000</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F58" s="1">
         <v>201031000000</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="H58" s="2" t="e">
-        <v>#N/A</v>
+        <v>176</v>
+      </c>
+      <c r="H58" s="2">
+        <v>999999</v>
       </c>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
       <c r="K58" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
@@ -6027,7 +6069,9 @@
       <c r="U58" s="2"/>
       <c r="V58" s="2"/>
       <c r="W58" s="2"/>
-      <c r="X58" s="2"/>
+      <c r="X58" s="6">
+        <v>9999</v>
+      </c>
       <c r="Y58" s="2" t="s">
         <v>6</v>
       </c>
@@ -6052,34 +6096,34 @@
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B59" s="1">
         <v>201032000000</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F59" s="1">
         <v>201032000000</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="H59" s="2" t="e">
-        <v>#N/A</v>
+        <v>214</v>
+      </c>
+      <c r="H59" s="2">
+        <v>999999</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K59" s="2"/>
       <c r="L59" s="2">
@@ -6089,16 +6133,16 @@
         <v>9870</v>
       </c>
       <c r="N59" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O59" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="P59" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="Q59" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="R59" s="5">
         <v>0.54690643999999999</v>
@@ -6119,7 +6163,7 @@
         <v>4.7993020999999997E-3</v>
       </c>
       <c r="X59" s="6">
-        <v>1.7205725999999999</v>
+        <v>9999</v>
       </c>
       <c r="Y59" s="2" t="s">
         <v>6</v>
@@ -6145,34 +6189,34 @@
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B60" s="1">
         <v>201033000000</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F60" s="1">
         <v>201033000000</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="H60" s="2" t="e">
-        <v>#N/A</v>
+        <v>214</v>
+      </c>
+      <c r="H60" s="2">
+        <v>999999</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K60" s="2"/>
       <c r="L60" s="2">
@@ -6182,16 +6226,16 @@
         <v>9810</v>
       </c>
       <c r="N60" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O60" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="P60" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Q60" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R60" s="5">
         <v>0.57729014000000001</v>
@@ -6212,7 +6256,7 @@
         <v>0</v>
       </c>
       <c r="X60" s="6">
-        <v>1.7176499000000001</v>
+        <v>9999</v>
       </c>
       <c r="Y60" s="2" t="s">
         <v>6</v>
@@ -6238,28 +6282,28 @@
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B61" s="1">
         <v>201034000000</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F61" s="1">
         <v>201034000000</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="H61" s="2" t="e">
-        <v>#N/A</v>
+        <v>214</v>
+      </c>
+      <c r="H61" s="2">
+        <v>999999</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>1</v>
@@ -6275,16 +6319,16 @@
         <v>9870</v>
       </c>
       <c r="N61" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O61" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="P61" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="Q61" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="R61" s="5">
         <v>0.54690643999999999</v>
@@ -6305,7 +6349,7 @@
         <v>4.7993020999999997E-3</v>
       </c>
       <c r="X61" s="6">
-        <v>1.7205725999999999</v>
+        <v>9999</v>
       </c>
       <c r="Y61" s="2" t="s">
         <v>6</v>
@@ -6331,28 +6375,28 @@
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B62" s="1">
         <v>201035000000</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F62" s="1">
         <v>201035000000</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="H62" s="2" t="e">
-        <v>#N/A</v>
+        <v>214</v>
+      </c>
+      <c r="H62" s="2">
+        <v>999999</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>1</v>
@@ -6368,16 +6412,16 @@
         <v>9870</v>
       </c>
       <c r="N62" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O62" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="P62" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="Q62" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="R62" s="5">
         <v>0.54690643999999999</v>
@@ -6398,7 +6442,7 @@
         <v>4.7993020999999997E-3</v>
       </c>
       <c r="X62" s="6">
-        <v>1.7205725999999999</v>
+        <v>9999</v>
       </c>
       <c r="Y62" s="2" t="s">
         <v>6</v>
@@ -6424,33 +6468,33 @@
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B63" s="1">
         <v>201036000000</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F63" s="1">
         <v>201036000000</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="H63" s="2" t="e">
-        <v>#N/A</v>
+        <v>214</v>
+      </c>
+      <c r="H63" s="2">
+        <v>999999</v>
       </c>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
       <c r="K63" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
@@ -6464,7 +6508,9 @@
       <c r="U63" s="2"/>
       <c r="V63" s="2"/>
       <c r="W63" s="2"/>
-      <c r="X63" s="2"/>
+      <c r="X63" s="6">
+        <v>9999</v>
+      </c>
       <c r="Y63" s="2" t="s">
         <v>6</v>
       </c>
@@ -6489,34 +6535,34 @@
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B64" s="1">
         <v>201039000000</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F64" s="1">
         <v>201039000000</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="H64" s="2" t="e">
-        <v>#N/A</v>
+        <v>214</v>
+      </c>
+      <c r="H64" s="2">
+        <v>999999</v>
       </c>
       <c r="I64" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K64" s="2"/>
       <c r="L64" s="2">
@@ -6526,16 +6572,16 @@
         <v>9870</v>
       </c>
       <c r="N64" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O64" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="P64" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="Q64" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="R64" s="5">
         <v>0.54690643999999999</v>
@@ -6556,7 +6602,7 @@
         <v>4.7993020999999997E-3</v>
       </c>
       <c r="X64" s="6">
-        <v>1.7205725999999999</v>
+        <v>9999</v>
       </c>
       <c r="Y64" s="2" t="s">
         <v>6</v>
@@ -6582,28 +6628,28 @@
     </row>
     <row r="65" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B65" s="1">
         <v>201042000000</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F65" s="1">
         <v>201042000000</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="H65" s="2" t="e">
-        <v>#N/A</v>
+        <v>223</v>
+      </c>
+      <c r="H65" s="2">
+        <v>999999</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>1</v>
@@ -6619,16 +6665,16 @@
         <v>9821</v>
       </c>
       <c r="N65" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O65" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="P65" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="Q65" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="R65" s="5">
         <v>0.54690643999999999</v>
@@ -6649,7 +6695,7 @@
         <v>4.7993020999999997E-3</v>
       </c>
       <c r="X65" s="6">
-        <v>1.7205725999999999</v>
+        <v>9999</v>
       </c>
       <c r="Y65" s="2" t="s">
         <v>6</v>
@@ -6675,28 +6721,28 @@
     </row>
     <row r="66" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B66" s="1">
         <v>201046000000</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F66" s="1">
         <v>201046000000</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="H66" s="2" t="e">
-        <v>#N/A</v>
+        <v>227</v>
+      </c>
+      <c r="H66" s="2">
+        <v>999999</v>
       </c>
       <c r="I66" s="2" t="s">
         <v>1</v>
@@ -6712,16 +6758,16 @@
         <v>20516</v>
       </c>
       <c r="N66" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O66" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="P66" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="Q66" s="4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="R66" s="5">
         <v>0.21632546999999999</v>
@@ -6742,7 +6788,7 @@
         <v>0</v>
       </c>
       <c r="X66" s="6">
-        <v>0.79102138</v>
+        <v>9999</v>
       </c>
       <c r="Y66" s="2" t="s">
         <v>6</v>
@@ -6768,28 +6814,28 @@
     </row>
     <row r="67" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B67" s="1">
         <v>201047000000</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F67" s="1">
         <v>201047000000</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="H67" s="2" t="e">
-        <v>#N/A</v>
+        <v>227</v>
+      </c>
+      <c r="H67" s="2">
+        <v>999999</v>
       </c>
       <c r="I67" s="2" t="s">
         <v>1</v>
@@ -6805,16 +6851,16 @@
         <v>15011</v>
       </c>
       <c r="N67" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O67" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="P67" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="Q67" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="R67" s="5">
         <v>1.7069215</v>
@@ -6835,7 +6881,7 @@
         <v>0.39825926</v>
       </c>
       <c r="X67" s="6">
-        <v>2.9816357999999998</v>
+        <v>9999</v>
       </c>
       <c r="Y67" s="2" t="s">
         <v>6</v>
@@ -6861,34 +6907,34 @@
     </row>
     <row r="68" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B68" s="1">
         <v>201050000000</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F68" s="1">
         <v>201050000000</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="H68" s="2" t="e">
-        <v>#N/A</v>
+        <v>227</v>
+      </c>
+      <c r="H68" s="2">
+        <v>999999</v>
       </c>
       <c r="I68" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K68" s="2"/>
       <c r="L68" s="2">
@@ -6898,16 +6944,16 @@
         <v>9520</v>
       </c>
       <c r="N68" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O68" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P68" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="Q68" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="R68" s="5">
         <v>1.8072718999999999</v>
@@ -6928,7 +6974,7 @@
         <v>0</v>
       </c>
       <c r="X68" s="6">
-        <v>2.4197334000000001</v>
+        <v>9999</v>
       </c>
       <c r="Y68" s="2" t="s">
         <v>6</v>
@@ -6954,33 +7000,33 @@
     </row>
     <row r="69" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B69" s="1">
         <v>201053000000</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F69" s="1">
         <v>201053000000</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="H69" s="2" t="e">
-        <v>#N/A</v>
+        <v>238</v>
+      </c>
+      <c r="H69" s="2">
+        <v>999999</v>
       </c>
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
       <c r="K69" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L69" s="2"/>
       <c r="M69" s="2"/>
@@ -6994,7 +7040,9 @@
       <c r="U69" s="2"/>
       <c r="V69" s="2"/>
       <c r="W69" s="2"/>
-      <c r="X69" s="2"/>
+      <c r="X69" s="6">
+        <v>9999</v>
+      </c>
       <c r="Y69" s="2" t="s">
         <v>6</v>
       </c>
@@ -7019,34 +7067,34 @@
     </row>
     <row r="70" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B70" s="1">
         <v>201064000000</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F70" s="1">
         <v>201064000000</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="H70" s="2" t="e">
-        <v>#N/A</v>
+        <v>240</v>
+      </c>
+      <c r="H70" s="2">
+        <v>999999</v>
       </c>
       <c r="I70" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K70" s="2"/>
       <c r="L70" s="2">
@@ -7056,16 +7104,16 @@
         <v>24038</v>
       </c>
       <c r="N70" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O70" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="P70" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="Q70" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="R70" s="5">
         <v>7.6223922000000002</v>
@@ -7086,7 +7134,7 @@
         <v>0</v>
       </c>
       <c r="X70" s="6">
-        <v>8.5994928999999996</v>
+        <v>9999</v>
       </c>
       <c r="Y70" s="2" t="s">
         <v>6</v>
@@ -7112,34 +7160,34 @@
     </row>
     <row r="71" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B71" s="1">
         <v>201065000000</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F71" s="1">
         <v>201065000000</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="H71" s="2" t="e">
-        <v>#N/A</v>
+        <v>240</v>
+      </c>
+      <c r="H71" s="2">
+        <v>999999</v>
       </c>
       <c r="I71" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K71" s="2"/>
       <c r="L71" s="2">
@@ -7149,16 +7197,16 @@
         <v>24049</v>
       </c>
       <c r="N71" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O71" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="P71" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Q71" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="R71" s="5">
         <v>1.2419594</v>
@@ -7179,7 +7227,7 @@
         <v>0</v>
       </c>
       <c r="X71" s="6">
-        <v>1.8459814999999999</v>
+        <v>9999</v>
       </c>
       <c r="Y71" s="2" t="s">
         <v>6</v>
@@ -7205,34 +7253,34 @@
     </row>
     <row r="72" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B72" s="1">
         <v>201066000000</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F72" s="1">
         <v>201066000000</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="H72" s="2" t="e">
-        <v>#N/A</v>
+        <v>240</v>
+      </c>
+      <c r="H72" s="2">
+        <v>999999</v>
       </c>
       <c r="I72" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K72" s="2"/>
       <c r="L72" s="2">
@@ -7242,16 +7290,16 @@
         <v>24049</v>
       </c>
       <c r="N72" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O72" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="P72" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Q72" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="R72" s="5">
         <v>1.2419594</v>
@@ -7272,7 +7320,7 @@
         <v>0</v>
       </c>
       <c r="X72" s="6">
-        <v>1.8459814999999999</v>
+        <v>9999</v>
       </c>
       <c r="Y72" s="2" t="s">
         <v>6</v>
@@ -7298,34 +7346,34 @@
     </row>
     <row r="73" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B73" s="1">
         <v>201067000000</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F73" s="1">
         <v>201067000000</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="H73" s="2" t="e">
-        <v>#N/A</v>
+        <v>240</v>
+      </c>
+      <c r="H73" s="2">
+        <v>999999</v>
       </c>
       <c r="I73" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K73" s="2"/>
       <c r="L73" s="2">
@@ -7335,16 +7383,16 @@
         <v>24049</v>
       </c>
       <c r="N73" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O73" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="P73" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Q73" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="R73" s="5">
         <v>1.2419594</v>
@@ -7365,7 +7413,7 @@
         <v>0</v>
       </c>
       <c r="X73" s="6">
-        <v>1.8459814999999999</v>
+        <v>9999</v>
       </c>
       <c r="Y73" s="2" t="s">
         <v>6</v>
@@ -7391,34 +7439,34 @@
     </row>
     <row r="74" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B74" s="1">
         <v>201068000000</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F74" s="1">
         <v>201068000000</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="H74" s="2" t="e">
-        <v>#N/A</v>
+        <v>240</v>
+      </c>
+      <c r="H74" s="2">
+        <v>999999</v>
       </c>
       <c r="I74" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K74" s="2"/>
       <c r="L74" s="2">
@@ -7428,16 +7476,16 @@
         <v>24049</v>
       </c>
       <c r="N74" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O74" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="P74" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Q74" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="R74" s="5">
         <v>1.2419594</v>
@@ -7458,7 +7506,7 @@
         <v>0</v>
       </c>
       <c r="X74" s="6">
-        <v>1.8459814999999999</v>
+        <v>9999</v>
       </c>
       <c r="Y74" s="2" t="s">
         <v>6</v>
@@ -7484,34 +7532,34 @@
     </row>
     <row r="75" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B75" s="1">
         <v>201069000000</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F75" s="1">
         <v>201069000000</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="H75" s="2" t="e">
-        <v>#N/A</v>
+        <v>251</v>
+      </c>
+      <c r="H75" s="2">
+        <v>999999</v>
       </c>
       <c r="I75" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K75" s="2"/>
       <c r="L75" s="2">
@@ -7521,16 +7569,16 @@
         <v>31106</v>
       </c>
       <c r="N75" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O75" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="P75" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="Q75" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="R75" s="5">
         <v>6.8826501000000002</v>
@@ -7551,7 +7599,7 @@
         <v>0</v>
       </c>
       <c r="X75" s="6">
-        <v>7.7225913999999998</v>
+        <v>9999</v>
       </c>
       <c r="Y75" s="2" t="s">
         <v>6</v>
@@ -7577,34 +7625,34 @@
     </row>
     <row r="76" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B76" s="1">
         <v>201070000000</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F76" s="1">
         <v>201070000000</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="H76" s="2" t="e">
-        <v>#N/A</v>
+        <v>255</v>
+      </c>
+      <c r="H76" s="2">
+        <v>999999</v>
       </c>
       <c r="I76" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K76" s="2"/>
       <c r="L76" s="2">
@@ -7614,16 +7662,16 @@
         <v>31106</v>
       </c>
       <c r="N76" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O76" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="P76" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="Q76" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="R76" s="5">
         <v>6.8826501000000002</v>
@@ -7644,7 +7692,7 @@
         <v>0</v>
       </c>
       <c r="X76" s="6">
-        <v>7.7225913999999998</v>
+        <v>9999</v>
       </c>
       <c r="Y76" s="2" t="s">
         <v>6</v>
@@ -7670,33 +7718,33 @@
     </row>
     <row r="77" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B77" s="1">
         <v>201071000000</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F77" s="1">
         <v>201071000000</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="H77" s="2" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="H77" s="2">
+        <v>999999</v>
       </c>
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
       <c r="K77" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
@@ -7710,7 +7758,9 @@
       <c r="U77" s="2"/>
       <c r="V77" s="2"/>
       <c r="W77" s="2"/>
-      <c r="X77" s="2"/>
+      <c r="X77" s="6">
+        <v>9999</v>
+      </c>
       <c r="Y77" s="2" t="s">
         <v>6</v>
       </c>
@@ -7735,34 +7785,34 @@
     </row>
     <row r="78" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B78" s="1">
         <v>201073000000</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F78" s="1">
         <v>201073000000</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="H78" s="2" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="H78" s="2">
+        <v>999999</v>
       </c>
       <c r="I78" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K78" s="2"/>
       <c r="L78" s="2">
@@ -7772,16 +7822,16 @@
         <v>15041</v>
       </c>
       <c r="N78" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O78" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="P78" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="Q78" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="R78" s="5">
         <v>5.0476035000000001</v>
@@ -7802,7 +7852,7 @@
         <v>0</v>
       </c>
       <c r="X78" s="6">
-        <v>5.7604477000000003</v>
+        <v>9999</v>
       </c>
       <c r="Y78" s="2" t="s">
         <v>6</v>
@@ -7828,34 +7878,34 @@
     </row>
     <row r="79" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B79" s="1">
         <v>201074000000</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F79" s="1">
         <v>201074000000</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="H79" s="2" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="H79" s="2">
+        <v>999999</v>
       </c>
       <c r="I79" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K79" s="2"/>
       <c r="L79" s="2">
@@ -7865,16 +7915,16 @@
         <v>15042</v>
       </c>
       <c r="N79" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O79" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="P79" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="Q79" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="R79" s="5">
         <v>5.0476035000000001</v>
@@ -7895,7 +7945,7 @@
         <v>0</v>
       </c>
       <c r="X79" s="6">
-        <v>5.7604477000000003</v>
+        <v>9999</v>
       </c>
       <c r="Y79" s="2" t="s">
         <v>6</v>
@@ -7921,28 +7971,28 @@
     </row>
     <row r="80" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B80" s="1">
         <v>201078000000</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F80" s="1">
         <v>201078000000</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="H80" s="2" t="e">
-        <v>#N/A</v>
+        <v>257</v>
+      </c>
+      <c r="H80" s="2">
+        <v>999999</v>
       </c>
       <c r="I80" s="2" t="s">
         <v>1</v>
@@ -7958,16 +8008,16 @@
         <v>15033</v>
       </c>
       <c r="N80" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O80" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="P80" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="Q80" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="R80" s="5">
         <v>4.1455764999999998</v>
@@ -7988,7 +8038,7 @@
         <v>0</v>
       </c>
       <c r="X80" s="6">
-        <v>4.7855606000000002</v>
+        <v>9999</v>
       </c>
       <c r="Y80" s="2" t="s">
         <v>6</v>
@@ -8014,33 +8064,33 @@
     </row>
     <row r="81" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B81" s="1">
         <v>201086000000</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F81" s="1">
         <v>201086000000</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="H81" s="2" t="e">
-        <v>#N/A</v>
+        <v>268</v>
+      </c>
+      <c r="H81" s="2">
+        <v>999999</v>
       </c>
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
       <c r="K81" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L81" s="2"/>
       <c r="M81" s="2"/>
@@ -8054,7 +8104,9 @@
       <c r="U81" s="2"/>
       <c r="V81" s="2"/>
       <c r="W81" s="2"/>
-      <c r="X81" s="2"/>
+      <c r="X81" s="6">
+        <v>9999</v>
+      </c>
       <c r="Y81" s="2" t="s">
         <v>6</v>
       </c>
@@ -8079,28 +8131,28 @@
     </row>
     <row r="82" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B82" s="1">
         <v>201087000000</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F82" s="1">
         <v>201087000000</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="H82" s="2" t="e">
-        <v>#N/A</v>
+        <v>268</v>
+      </c>
+      <c r="H82" s="2">
+        <v>999999</v>
       </c>
       <c r="I82" s="2" t="s">
         <v>1</v>
@@ -8116,16 +8168,16 @@
         <v>15026</v>
       </c>
       <c r="N82" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O82" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="P82" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="Q82" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="R82" s="5">
         <v>2.5135833000000001</v>
@@ -8146,7 +8198,7 @@
         <v>0</v>
       </c>
       <c r="X82" s="6">
-        <v>3.0487662000000002</v>
+        <v>9999</v>
       </c>
       <c r="Y82" s="2" t="s">
         <v>6</v>
@@ -8172,34 +8224,34 @@
     </row>
     <row r="83" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B83" s="1">
         <v>201094000000</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F83" s="1">
         <v>201094000000</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="H83" s="2" t="e">
-        <v>#N/A</v>
+        <v>273</v>
+      </c>
+      <c r="H83" s="2">
+        <v>999999</v>
       </c>
       <c r="I83" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K83" s="2"/>
       <c r="L83" s="2">
@@ -8209,16 +8261,16 @@
         <v>9681</v>
       </c>
       <c r="N83" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O83" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="P83" s="4" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="Q83" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="R83" s="5">
         <v>0.52491525999999999</v>
@@ -8239,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="X83" s="6">
-        <v>1.3223798</v>
+        <v>9999</v>
       </c>
       <c r="Y83" s="2" t="s">
         <v>6</v>
@@ -8265,34 +8317,34 @@
     </row>
     <row r="84" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B84" s="1">
         <v>201095000000</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F84" s="1">
         <v>201095000000</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="H84" s="2" t="e">
-        <v>#N/A</v>
+        <v>273</v>
+      </c>
+      <c r="H84" s="2">
+        <v>999999</v>
       </c>
       <c r="I84" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K84" s="2"/>
       <c r="L84" s="2">
@@ -8302,16 +8354,16 @@
         <v>9681</v>
       </c>
       <c r="N84" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O84" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="P84" s="4" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="Q84" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="R84" s="5">
         <v>0.52491525999999999</v>
@@ -8332,7 +8384,7 @@
         <v>0</v>
       </c>
       <c r="X84" s="6">
-        <v>1.3223798</v>
+        <v>9999</v>
       </c>
       <c r="Y84" s="2" t="s">
         <v>6</v>
@@ -8358,34 +8410,34 @@
     </row>
     <row r="85" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B85" s="1">
         <v>201096000000</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F85" s="1">
         <v>201096000000</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="H85" s="2" t="e">
-        <v>#N/A</v>
+        <v>278</v>
+      </c>
+      <c r="H85" s="2">
+        <v>999999</v>
       </c>
       <c r="I85" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K85" s="2"/>
       <c r="L85" s="2">
@@ -8395,16 +8447,16 @@
         <v>9681</v>
       </c>
       <c r="N85" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O85" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="P85" s="4" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="Q85" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="R85" s="5">
         <v>0.52491525999999999</v>
@@ -8425,7 +8477,7 @@
         <v>0</v>
       </c>
       <c r="X85" s="6">
-        <v>1.3223798</v>
+        <v>9999</v>
       </c>
       <c r="Y85" s="2" t="s">
         <v>6</v>
@@ -8451,34 +8503,34 @@
     </row>
     <row r="86" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B86" s="1">
         <v>201097000000</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F86" s="1">
         <v>201097000000</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="H86" s="2" t="e">
-        <v>#N/A</v>
+        <v>280</v>
+      </c>
+      <c r="H86" s="2">
+        <v>999999</v>
       </c>
       <c r="I86" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K86" s="2"/>
       <c r="L86" s="2">
@@ -8488,16 +8540,16 @@
         <v>9681</v>
       </c>
       <c r="N86" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O86" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="P86" s="4" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="Q86" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="R86" s="5">
         <v>0.52491525999999999</v>
@@ -8518,7 +8570,7 @@
         <v>0</v>
       </c>
       <c r="X86" s="6">
-        <v>1.3223798</v>
+        <v>9999</v>
       </c>
       <c r="Y86" s="2" t="s">
         <v>6</v>
@@ -8544,33 +8596,33 @@
     </row>
     <row r="87" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B87" s="1">
         <v>201099000000</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F87" s="1">
         <v>201099000000</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="H87" s="2" t="e">
-        <v>#N/A</v>
+        <v>282</v>
+      </c>
+      <c r="H87" s="2">
+        <v>999999</v>
       </c>
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
       <c r="K87" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L87" s="2"/>
       <c r="M87" s="2"/>
@@ -8584,7 +8636,9 @@
       <c r="U87" s="5"/>
       <c r="V87" s="5"/>
       <c r="W87" s="5"/>
-      <c r="X87" s="6"/>
+      <c r="X87" s="6">
+        <v>9999</v>
+      </c>
       <c r="Y87" s="2" t="s">
         <v>6</v>
       </c>
@@ -8609,33 +8663,33 @@
     </row>
     <row r="88" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B88" s="1">
         <v>201100000000</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F88" s="1">
         <v>201100000000</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="H88" s="2" t="e">
-        <v>#N/A</v>
+        <v>284</v>
+      </c>
+      <c r="H88" s="2">
+        <v>999999</v>
       </c>
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
       <c r="K88" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L88" s="2"/>
       <c r="M88" s="2"/>
@@ -8649,7 +8703,9 @@
       <c r="U88" s="2"/>
       <c r="V88" s="2"/>
       <c r="W88" s="2"/>
-      <c r="X88" s="2"/>
+      <c r="X88" s="6">
+        <v>9999</v>
+      </c>
       <c r="Y88" s="2" t="s">
         <v>6</v>
       </c>
@@ -8674,28 +8730,28 @@
     </row>
     <row r="89" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B89" s="1">
         <v>201102000000</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F89" s="1">
         <v>201102000000</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="H89" s="2" t="e">
-        <v>#N/A</v>
+        <v>284</v>
+      </c>
+      <c r="H89" s="2">
+        <v>999999</v>
       </c>
       <c r="I89" s="2" t="s">
         <v>1</v>
@@ -8704,7 +8760,7 @@
         <v>44703</v>
       </c>
       <c r="K89" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="L89" s="2">
         <v>9119</v>
@@ -8713,16 +8769,16 @@
         <v>9119</v>
       </c>
       <c r="N89" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O89" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="P89" s="4" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="Q89" s="4" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="R89" s="5">
         <v>1.5176977</v>
@@ -8743,7 +8799,7 @@
         <v>0</v>
       </c>
       <c r="X89" s="6">
-        <v>2.1617031999999998</v>
+        <v>9999</v>
       </c>
       <c r="Y89" s="2" t="s">
         <v>6</v>
@@ -8769,33 +8825,33 @@
     </row>
     <row r="90" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B90" s="1">
         <v>201107000000</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F90" s="1">
         <v>201107000000</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="H90" s="2" t="e">
-        <v>#N/A</v>
+        <v>284</v>
+      </c>
+      <c r="H90" s="2">
+        <v>999999</v>
       </c>
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
       <c r="K90" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L90" s="2"/>
       <c r="M90" s="2"/>
@@ -8809,7 +8865,9 @@
       <c r="U90" s="2"/>
       <c r="V90" s="2"/>
       <c r="W90" s="2"/>
-      <c r="X90" s="2"/>
+      <c r="X90" s="6">
+        <v>9999</v>
+      </c>
       <c r="Y90" s="2" t="s">
         <v>6</v>
       </c>
@@ -8834,34 +8892,34 @@
     </row>
     <row r="91" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B91" s="1">
         <v>201108000000</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F91" s="1">
         <v>201108000000</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="H91" s="2" t="e">
-        <v>#N/A</v>
+        <v>284</v>
+      </c>
+      <c r="H91" s="2">
+        <v>999999</v>
       </c>
       <c r="I91" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K91" s="2"/>
       <c r="L91" s="2">
@@ -8871,16 +8929,16 @@
         <v>9681</v>
       </c>
       <c r="N91" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O91" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="P91" s="4" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="Q91" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="R91" s="5">
         <v>0.52491525999999999</v>
@@ -8901,7 +8959,7 @@
         <v>0</v>
       </c>
       <c r="X91" s="6">
-        <v>1.3223798</v>
+        <v>9999</v>
       </c>
       <c r="Y91" s="2" t="s">
         <v>6</v>
@@ -8927,34 +8985,34 @@
     </row>
     <row r="92" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B92" s="1">
         <v>201110000000</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F92" s="1">
         <v>201110000000</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="H92" s="2" t="e">
-        <v>#N/A</v>
+        <v>292</v>
+      </c>
+      <c r="H92" s="2">
+        <v>999999</v>
       </c>
       <c r="I92" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K92" s="2"/>
       <c r="L92" s="2">
@@ -8964,16 +9022,16 @@
         <v>9010</v>
       </c>
       <c r="N92" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O92" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="P92" s="4" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="Q92" s="4" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="R92" s="5">
         <v>0.30568794999999999</v>
@@ -8994,7 +9052,7 @@
         <v>0</v>
       </c>
       <c r="X92" s="6">
-        <v>0.73758190000000001</v>
+        <v>9999</v>
       </c>
       <c r="Y92" s="2" t="s">
         <v>6</v>
@@ -9020,33 +9078,33 @@
     </row>
     <row r="93" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B93" s="1">
         <v>201111000000</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F93" s="1">
         <v>201111000000</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="H93" s="2" t="e">
-        <v>#N/A</v>
+        <v>292</v>
+      </c>
+      <c r="H93" s="2">
+        <v>999999</v>
       </c>
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
       <c r="K93" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L93" s="2"/>
       <c r="M93" s="2"/>
@@ -9060,7 +9118,9 @@
       <c r="U93" s="2"/>
       <c r="V93" s="2"/>
       <c r="W93" s="2"/>
-      <c r="X93" s="2"/>
+      <c r="X93" s="6">
+        <v>9999</v>
+      </c>
       <c r="Y93" s="2" t="s">
         <v>6</v>
       </c>
@@ -9085,33 +9145,33 @@
     </row>
     <row r="94" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B94" s="1">
         <v>201112000000</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F94" s="1">
         <v>201112000000</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="H94" s="2" t="e">
-        <v>#N/A</v>
+        <v>292</v>
+      </c>
+      <c r="H94" s="2">
+        <v>999999</v>
       </c>
       <c r="I94" s="2"/>
       <c r="J94" s="2"/>
       <c r="K94" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L94" s="2"/>
       <c r="M94" s="2"/>
@@ -9125,7 +9185,9 @@
       <c r="U94" s="2"/>
       <c r="V94" s="2"/>
       <c r="W94" s="2"/>
-      <c r="X94" s="2"/>
+      <c r="X94" s="6">
+        <v>9999</v>
+      </c>
       <c r="Y94" s="2" t="s">
         <v>6</v>
       </c>
@@ -9150,28 +9212,28 @@
     </row>
     <row r="95" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B95" s="1">
         <v>201113000000</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F95" s="1">
         <v>201113000000</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="H95" s="2" t="e">
-        <v>#N/A</v>
+        <v>238</v>
+      </c>
+      <c r="H95" s="2">
+        <v>999999</v>
       </c>
       <c r="I95" s="2" t="s">
         <v>1</v>
@@ -9187,16 +9249,16 @@
         <v>20504</v>
       </c>
       <c r="N95" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O95" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="P95" s="4" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="Q95" s="4" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="R95" s="5">
         <v>9.2851048000000005E-2</v>
@@ -9217,7 +9279,7 @@
         <v>7.9267751999999997E-3</v>
       </c>
       <c r="X95" s="6">
-        <v>0.30658286000000001</v>
+        <v>9999</v>
       </c>
       <c r="Y95" s="2" t="s">
         <v>6</v>
@@ -9243,33 +9305,33 @@
     </row>
     <row r="96" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B96" s="1">
         <v>201115000000</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F96" s="1">
         <v>201115000000</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="H96" s="2" t="e">
-        <v>#N/A</v>
+        <v>292</v>
+      </c>
+      <c r="H96" s="2">
+        <v>999999</v>
       </c>
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
       <c r="K96" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L96" s="2"/>
       <c r="M96" s="2"/>
@@ -9283,7 +9345,9 @@
       <c r="U96" s="2"/>
       <c r="V96" s="2"/>
       <c r="W96" s="2"/>
-      <c r="X96" s="2"/>
+      <c r="X96" s="6">
+        <v>9999</v>
+      </c>
       <c r="Y96" s="2" t="s">
         <v>6</v>
       </c>
@@ -9308,33 +9372,33 @@
     </row>
     <row r="97" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B97" s="1">
         <v>201116000000</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F97" s="1">
         <v>201116000000</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="H97" s="2" t="e">
-        <v>#N/A</v>
+        <v>292</v>
+      </c>
+      <c r="H97" s="2">
+        <v>999999</v>
       </c>
       <c r="I97" s="2"/>
       <c r="J97" s="2"/>
       <c r="K97" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L97" s="2"/>
       <c r="M97" s="2"/>
@@ -9348,7 +9412,9 @@
       <c r="U97" s="2"/>
       <c r="V97" s="2"/>
       <c r="W97" s="2"/>
-      <c r="X97" s="2"/>
+      <c r="X97" s="6">
+        <v>9999</v>
+      </c>
       <c r="Y97" s="2" t="s">
         <v>6</v>
       </c>
@@ -9373,28 +9439,28 @@
     </row>
     <row r="98" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B98" s="1">
         <v>201117000000</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F98" s="1">
         <v>201117000000</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="H98" s="2" t="e">
-        <v>#N/A</v>
+        <v>292</v>
+      </c>
+      <c r="H98" s="2">
+        <v>999999</v>
       </c>
       <c r="I98" s="2" t="s">
         <v>1</v>
@@ -9410,16 +9476,16 @@
         <v>20585</v>
       </c>
       <c r="N98" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O98" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="P98" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="Q98" s="4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="R98" s="5">
         <v>9.2851048000000005E-2</v>
@@ -9440,7 +9506,7 @@
         <v>7.9267751999999997E-3</v>
       </c>
       <c r="X98" s="6">
-        <v>0.30658286000000001</v>
+        <v>9999</v>
       </c>
       <c r="Y98" s="2" t="s">
         <v>6</v>
@@ -9466,34 +9532,34 @@
     </row>
     <row r="99" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B99" s="1">
         <v>201126000000</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F99" s="1">
         <v>201126000000</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="H99" s="2" t="e">
-        <v>#N/A</v>
+        <v>306</v>
+      </c>
+      <c r="H99" s="2">
+        <v>999999</v>
       </c>
       <c r="I99" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K99" s="2"/>
       <c r="L99" s="2">
@@ -9503,16 +9569,16 @@
         <v>38402</v>
       </c>
       <c r="N99" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O99" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="P99" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q99" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="R99" s="5">
         <v>1.0203257999999999</v>
@@ -9533,7 +9599,7 @@
         <v>0</v>
       </c>
       <c r="X99" s="6">
-        <v>1.8689845</v>
+        <v>9999</v>
       </c>
       <c r="Y99" s="2" t="s">
         <v>6</v>
@@ -9559,34 +9625,34 @@
     </row>
     <row r="100" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B100" s="1">
         <v>201127000000</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F100" s="1">
         <v>201127000000</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="H100" s="2" t="e">
-        <v>#N/A</v>
+        <v>306</v>
+      </c>
+      <c r="H100" s="2">
+        <v>999999</v>
       </c>
       <c r="I100" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K100" s="2"/>
       <c r="L100" s="2">
@@ -9596,16 +9662,16 @@
         <v>38402</v>
       </c>
       <c r="N100" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O100" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="P100" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q100" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="R100" s="5">
         <v>1.0203257999999999</v>
@@ -9626,7 +9692,7 @@
         <v>0</v>
       </c>
       <c r="X100" s="6">
-        <v>1.8689845</v>
+        <v>9999</v>
       </c>
       <c r="Y100" s="2" t="s">
         <v>6</v>
@@ -9652,34 +9718,34 @@
     </row>
     <row r="101" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B101" s="1">
         <v>201128000000</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F101" s="1">
         <v>201128000000</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="H101" s="2" t="e">
-        <v>#N/A</v>
+        <v>306</v>
+      </c>
+      <c r="H101" s="2">
+        <v>999999</v>
       </c>
       <c r="I101" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K101" s="2"/>
       <c r="L101" s="2">
@@ -9689,16 +9755,16 @@
         <v>38402</v>
       </c>
       <c r="N101" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O101" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="P101" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q101" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="R101" s="5">
         <v>1.0203257999999999</v>
@@ -9719,7 +9785,7 @@
         <v>0</v>
       </c>
       <c r="X101" s="6">
-        <v>1.8689845</v>
+        <v>9999</v>
       </c>
       <c r="Y101" s="2" t="s">
         <v>6</v>
@@ -9745,34 +9811,34 @@
     </row>
     <row r="102" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B102" s="1">
         <v>201129000000</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F102" s="1">
         <v>201129000000</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="H102" s="2" t="e">
-        <v>#N/A</v>
+        <v>306</v>
+      </c>
+      <c r="H102" s="2">
+        <v>999999</v>
       </c>
       <c r="I102" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K102" s="2"/>
       <c r="L102" s="2">
@@ -9782,16 +9848,16 @@
         <v>38402</v>
       </c>
       <c r="N102" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O102" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="P102" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q102" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="R102" s="5">
         <v>1.0203257999999999</v>
@@ -9812,7 +9878,7 @@
         <v>0</v>
       </c>
       <c r="X102" s="6">
-        <v>1.8689845</v>
+        <v>9999</v>
       </c>
       <c r="Y102" s="2" t="s">
         <v>6</v>
@@ -9838,33 +9904,33 @@
     </row>
     <row r="103" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B103" s="1">
         <v>201130000000</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F103" s="1">
         <v>201130000000</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="H103" s="2" t="e">
-        <v>#N/A</v>
+        <v>313</v>
+      </c>
+      <c r="H103" s="2">
+        <v>999999</v>
       </c>
       <c r="I103" s="2"/>
       <c r="J103" s="2"/>
       <c r="K103" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L103" s="2"/>
       <c r="M103" s="2"/>
@@ -9878,7 +9944,9 @@
       <c r="U103" s="2"/>
       <c r="V103" s="2"/>
       <c r="W103" s="2"/>
-      <c r="X103" s="2"/>
+      <c r="X103" s="6">
+        <v>9999</v>
+      </c>
       <c r="Y103" s="2" t="s">
         <v>6</v>
       </c>
@@ -9903,33 +9971,33 @@
     </row>
     <row r="104" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B104" s="1">
         <v>201141000000</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F104" s="1">
         <v>201141000000</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="H104" s="2" t="e">
-        <v>#N/A</v>
+        <v>313</v>
+      </c>
+      <c r="H104" s="2">
+        <v>999999</v>
       </c>
       <c r="I104" s="2"/>
       <c r="J104" s="2"/>
       <c r="K104" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L104" s="2"/>
       <c r="M104" s="2"/>
@@ -9943,7 +10011,9 @@
       <c r="U104" s="2"/>
       <c r="V104" s="2"/>
       <c r="W104" s="2"/>
-      <c r="X104" s="2"/>
+      <c r="X104" s="6">
+        <v>9999</v>
+      </c>
       <c r="Y104" s="2" t="s">
         <v>6</v>
       </c>
@@ -9968,34 +10038,34 @@
     </row>
     <row r="105" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B105" s="1">
         <v>201147000000</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F105" s="1">
         <v>201147000000</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="H105" s="2" t="e">
-        <v>#N/A</v>
+        <v>316</v>
+      </c>
+      <c r="H105" s="2">
+        <v>999999</v>
       </c>
       <c r="I105" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K105" s="2"/>
       <c r="L105" s="2">
@@ -10005,16 +10075,16 @@
         <v>24684</v>
       </c>
       <c r="N105" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O105" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="P105" s="4" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="Q105" s="4" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="R105" s="5">
         <v>3.3742678000000002</v>
@@ -10035,7 +10105,7 @@
         <v>0</v>
       </c>
       <c r="X105" s="6">
-        <v>4.1437356999999997</v>
+        <v>9999</v>
       </c>
       <c r="Y105" s="2" t="s">
         <v>6</v>
@@ -10061,33 +10131,33 @@
     </row>
     <row r="106" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B106" s="1">
         <v>201148000000</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F106" s="1">
         <v>201148000000</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="H106" s="2" t="e">
-        <v>#N/A</v>
+        <v>316</v>
+      </c>
+      <c r="H106" s="2">
+        <v>999999</v>
       </c>
       <c r="I106" s="2"/>
       <c r="J106" s="2"/>
       <c r="K106" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L106" s="2"/>
       <c r="M106" s="2"/>
@@ -10101,7 +10171,9 @@
       <c r="U106" s="2"/>
       <c r="V106" s="2"/>
       <c r="W106" s="2"/>
-      <c r="X106" s="2"/>
+      <c r="X106" s="6">
+        <v>9999</v>
+      </c>
       <c r="Y106" s="2" t="s">
         <v>6</v>
       </c>
@@ -10126,28 +10198,28 @@
     </row>
     <row r="107" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B107" s="1">
         <v>201149000000</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F107" s="1">
         <v>201149000000</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="H107" s="2" t="e">
-        <v>#N/A</v>
+        <v>321</v>
+      </c>
+      <c r="H107" s="2">
+        <v>999999</v>
       </c>
       <c r="I107" s="2" t="s">
         <v>1</v>
@@ -10163,16 +10235,16 @@
         <v>9340</v>
       </c>
       <c r="N107" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O107" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="P107" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="Q107" s="4" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="R107" s="5">
         <v>0.902335</v>
@@ -10193,7 +10265,7 @@
         <v>0</v>
       </c>
       <c r="X107" s="6">
-        <v>1.5831892000000001</v>
+        <v>9999</v>
       </c>
       <c r="Y107" s="2" t="s">
         <v>6</v>

--- a/database/test.xlsx
+++ b/database/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xtian\OneDrive\Documents\CentralSupelec\projet\msdocs-flask-postgresql-sample-app\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F474B50-06DF-40BD-83A4-308C57F65A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F6AEBD-5731-4C03-83A7-44182AF52C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4050" yWindow="3120" windowWidth="20910" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -1420,8 +1420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J70" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2:X107"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1590,7 +1590,7 @@
         <v>0.14513192999999999</v>
       </c>
       <c r="X2" s="6">
-        <v>9999</v>
+        <v>9996</v>
       </c>
       <c r="Y2" s="2" t="s">
         <v>6</v>

--- a/database/test.xlsx
+++ b/database/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xtian\OneDrive\Documents\CentralSupelec\projet\msdocs-flask-postgresql-sample-app\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F6AEBD-5731-4C03-83A7-44182AF52C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF2CA14-9C53-41A2-BFF0-E17BD6247BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4050" yWindow="3120" windowWidth="20910" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -1420,7 +1420,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
@@ -1590,7 +1590,7 @@
         <v>0.14513192999999999</v>
       </c>
       <c r="X2" s="6">
-        <v>9996</v>
+        <v>99998</v>
       </c>
       <c r="Y2" s="2" t="s">
         <v>6</v>

--- a/database/test.xlsx
+++ b/database/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xtian\OneDrive\Documents\CentralSupelec\projet\msdocs-flask-postgresql-sample-app\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF2CA14-9C53-41A2-BFF0-E17BD6247BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C1F4F7-8E59-43C8-AAFE-89DB2C063779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1420,7 +1420,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
@@ -1590,7 +1590,7 @@
         <v>0.14513192999999999</v>
       </c>
       <c r="X2" s="6">
-        <v>99998</v>
+        <v>99991</v>
       </c>
       <c r="Y2" s="2" t="s">
         <v>6</v>
